--- a/src/k.xlsx
+++ b/src/k.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danuka\Desktop\ATS\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A606F8A9-5FF1-4913-997F-4FCFE1F1BD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="250">
   <si>
     <t>Emp_id</t>
   </si>
@@ -751,6 +745,9 @@
     <t xml:space="preserve"> Bsc applied statistic</t>
   </si>
   <si>
+    <t>intern 6 months</t>
+  </si>
+  <si>
     <t>Data Visualization Data Analysis Machine Learning Neural Network</t>
   </si>
   <si>
@@ -758,16 +755,25 @@
   </si>
   <si>
     <t>Problem Solving Time Management Team Work Analytical Thinking</t>
+  </si>
+  <si>
+    <t>No projects</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>intern Data Analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,7 +784,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -789,7 +803,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -799,41 +813,86 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="16">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -844,10 +903,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -885,69 +944,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -971,54 +1032,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1028,7 +1088,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1037,7 +1097,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1046,7 +1106,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1054,10 +1114,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1086,7 +1146,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -1099,13 +1159,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1123,2906 +1182,2939 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="9" max="9" width="69.88671875" customWidth="1"/>
-    <col min="10" max="10" width="48.88671875" customWidth="1"/>
+    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="69.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="48.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="8">
         <v>44524</v>
       </c>
-      <c r="H2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="9">
+        <v>1.15</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="O2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="9">
         <v>3.22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="8">
         <v>45525</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <v>4.54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="O3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="9">
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <v>44510</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>4.22</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="O4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="9">
         <v>3.55</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <v>45524</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>12.09</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R5">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="R5" s="9">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>43851</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>5.83</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="M6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="9">
         <v>4.03</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="8">
         <v>44694</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>14.98</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="O7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="9">
         <v>4.55</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="8">
         <v>44119</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <v>5.09</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="9">
         <v>4.38</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <v>44652</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <v>5.58</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="9">
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="8">
         <v>45007</v>
       </c>
-      <c r="H10">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="9">
+        <v>8.03</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="O10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="9">
         <v>4.13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="8">
         <v>44954</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>3.15</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="O11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="9">
         <v>3.59</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="8">
         <v>44539</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>5.84</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O12" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="O12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="9">
         <v>4.05</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="8">
         <v>44144</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>1.84</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="M13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="O13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="9">
         <v>3.46</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="8">
         <v>44336</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>1.01</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="M14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="O14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="9">
         <v>3.93</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="8">
         <v>44052</v>
       </c>
-      <c r="H15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="9">
+        <v>4.1</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="M15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="O15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="9">
         <v>3.85</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="8">
         <v>44338</v>
       </c>
-      <c r="H16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="9">
+        <v>2.43</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="M16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="O16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="9">
         <v>3.67</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="8">
         <v>45561</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>2.71</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="O17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="9">
         <v>3.61</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="8">
         <v>44004</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
         <v>4.03</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="O18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="9">
         <v>3.09</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="8">
         <v>44662</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <v>8.84</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="O19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="9">
         <v>4.21</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="8">
         <v>44808</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="9">
         <v>8.43</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="O20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R20">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="R20" s="9">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="8">
         <v>45256</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="9">
         <v>3.39</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M21" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="M21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="O21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="9">
         <v>3.97</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="8">
         <v>45505</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="9">
         <v>10.49</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="M22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R22">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="R22" s="9">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="8">
         <v>45071</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="9">
         <v>2.96</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="O23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="9">
         <v>3.55</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>55</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="8">
         <v>45364</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="9">
         <v>12.41</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O24" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="O24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R24">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="R24" s="9">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>50</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="8">
         <v>44328</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="9">
         <v>4.71</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O25" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="O25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="9">
         <v>3.46</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="8">
         <v>45016</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="9">
         <v>7.4</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M26" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="M26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="O26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R26">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="R26" s="9">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>40</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="8">
         <v>45549</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="9">
         <v>2.65</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M27" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="M27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O27" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="O27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="9">
         <v>3.23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="8">
         <v>45499</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="9">
         <v>8.83</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="M28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O28" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="O28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="9">
         <v>4.43</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="8">
         <v>44742</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="9">
         <v>10.11</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M29" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="M29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="O29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R29">
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="R29" s="9">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>43</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="8">
         <v>44649</v>
       </c>
-      <c r="H30">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="9">
+        <v>9.7</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="M30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="O30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="9">
         <v>4.38</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>33</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="8">
         <v>44161</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="9">
         <v>11.97</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="M31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O31" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="O31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="9">
         <v>4.74</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>52</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="8">
         <v>44448</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="9">
         <v>10.17</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="M32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="9">
         <v>4.54</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>41</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="8">
         <v>45478</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="9">
         <v>5.39</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M33" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="M33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="O33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="9">
         <v>4.05</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>45</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="8">
         <v>44178</v>
       </c>
-      <c r="H34">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="9">
+        <v>8.95</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="M34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O34" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="O34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="9">
         <v>4.17</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>45</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="8">
         <v>44786</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="9">
         <v>3.93</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M35" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="M35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="O35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="9">
         <v>3.65</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>37</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="8">
         <v>44075</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="9">
         <v>3.11</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O36" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="O36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="9">
         <v>3.31</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>31</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="8">
         <v>45486</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="9">
         <v>2.08</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M37" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O37" t="s">
-        <v>28</v>
-      </c>
-      <c r="P37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="O37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="9">
         <v>3.27</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>55</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="8">
         <v>45539</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="9">
         <v>5.8</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M38" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="M38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="O38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="9">
         <v>4.08</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="8">
         <v>44489</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="9">
         <v>3.42</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M39" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="M39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O39" t="s">
-        <v>28</v>
-      </c>
-      <c r="P39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="O39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="9">
         <v>3.95</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="8">
         <v>44799</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="9">
         <v>2.75</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M40" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="M40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="9">
         <v>3.71</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>48</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="8">
         <v>45439</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="9">
         <v>7.57</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="M41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O41" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="O41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="9">
         <v>4.3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>51</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="8">
         <v>43896</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="9">
         <v>4.62</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M42" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="M42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="O42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="9">
         <v>3.23</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>35</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="8">
         <v>44051</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="9">
         <v>5.44</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M43" t="s">
-        <v>28</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="M43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O43" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="O43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="9">
         <v>4.34</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>45</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="8">
         <v>43928</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="9">
         <v>3.48</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M44" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44" t="s">
-        <v>26</v>
-      </c>
-      <c r="P44" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="M44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="9">
         <v>3.62</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>33</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="8">
         <v>45339</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="9">
         <v>11.42</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M45" t="s">
-        <v>28</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="M45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O45" t="s">
-        <v>26</v>
-      </c>
-      <c r="P45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="O45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>38</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="8">
         <v>45605</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="9">
         <v>5.69</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M46" t="s">
-        <v>28</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="O46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="9">
         <v>4.43</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>37</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="8">
         <v>45095</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="9">
         <v>10.64</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M47" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="M47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O47" t="s">
-        <v>26</v>
-      </c>
-      <c r="P47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="O47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="9">
         <v>4.99</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>44</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="8">
         <v>45147</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="9">
         <v>5.32</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M48" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="M48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O48" t="s">
-        <v>28</v>
-      </c>
-      <c r="P48" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="O48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q48" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="9">
         <v>4.05</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>51</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="8">
         <v>44136</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="9">
         <v>6.23</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M49" t="s">
-        <v>28</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="M49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O49" t="s">
-        <v>26</v>
-      </c>
-      <c r="P49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="O49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="9">
         <v>4.12</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>46</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="8">
         <v>44170</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="9">
         <v>9.35</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M50" t="s">
-        <v>28</v>
-      </c>
-      <c r="N50" t="s">
-        <v>28</v>
-      </c>
-      <c r="O50" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="M50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q50" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="9">
         <v>4.07</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>35</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="8">
         <v>45141</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="9">
         <v>14.19</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M51" t="s">
-        <v>28</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O51" t="s">
-        <v>26</v>
-      </c>
-      <c r="P51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="O51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="9">
         <v>4.84</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>25</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="F52" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J52" t="s">
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="K52" t="s">
+      <c r="J52" s="6" t="s">
         <v>245</v>
       </c>
+      <c r="K52" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="R52" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>